--- a/20190916_SEM06_SES01/BD_COLEGIO.xlsx
+++ b/20190916_SEM06_SES01/BD_COLEGIO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\curso_backend\20190916_SEM06_SES01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDRCPU07\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2230CF24-C18E-4AF7-8D3D-E476371F0F09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>ALUMNOS</t>
   </si>
@@ -44,9 +45,6 @@
     <t>Curso</t>
   </si>
   <si>
-    <t>Nota</t>
-  </si>
-  <si>
     <t>nombreProfesor</t>
   </si>
   <si>
@@ -68,12 +66,6 @@
     <t>idProfesor (FK)</t>
   </si>
   <si>
-    <t>CURSOSALUMNOS</t>
-  </si>
-  <si>
-    <t>GRADO</t>
-  </si>
-  <si>
     <t>grado</t>
   </si>
   <si>
@@ -87,13 +79,52 @@
   </si>
   <si>
     <t>idCursoAlumno (FK)</t>
+  </si>
+  <si>
+    <t>seccion</t>
+  </si>
+  <si>
+    <t>GRADOSECCION</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>idSeccion (PK)</t>
+  </si>
+  <si>
+    <t>año</t>
+  </si>
+  <si>
+    <t>idGradoSeccion (PK)</t>
+  </si>
+  <si>
+    <t>CURSOALUMNO</t>
+  </si>
+  <si>
+    <t>GRADOS</t>
+  </si>
+  <si>
+    <t>SECCIONES</t>
+  </si>
+  <si>
+    <t>idNota (PK)</t>
+  </si>
+  <si>
+    <t>idSeccion (FK)</t>
+  </si>
+  <si>
+    <t>nota</t>
+  </si>
+  <si>
+    <t>idGradoSeccion (FK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +140,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,13 +172,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,7 +258,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector angular 2"/>
+        <xdr:cNvPr id="3" name="Conector angular 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -214,7 +311,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Conector angular 3"/>
+        <xdr:cNvPr id="4" name="Conector angular 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -261,7 +364,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Conector angular 6"/>
+        <xdr:cNvPr id="7" name="Conector angular 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -296,25 +405,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Conector recto de flecha 9"/>
+        <xdr:cNvPr id="10" name="Conector recto de flecha 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3276600" y="504825"/>
-          <a:ext cx="9525" cy="1276350"/>
+          <a:off x="3476625" y="542925"/>
+          <a:ext cx="1" cy="1590675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -343,27 +458,139 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>1000125</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>1000127</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector recto de flecha 10"/>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5019675" y="1095375"/>
-          <a:ext cx="1" cy="523875"/>
+          <a:off x="5553075" y="1104900"/>
+          <a:ext cx="2" cy="647701"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector angular 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E941B0DA-B5A8-475A-B37B-9725B96E81E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5791200" y="1647825"/>
+          <a:ext cx="790576" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector angular 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413B7C3D-B577-403C-90F2-0C2C072D4D48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5800725" y="2209801"/>
+          <a:ext cx="771526" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -652,100 +879,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
